--- a/ЛР4/Pairwise.xlsx
+++ b/ЛР4/Pairwise.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuri\Desktop\Документы от вуза\4_Для учебы\6 сем\Михайлов Тестирование и отладка ПО\TiopoLabs2\ЛР4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D1CF2C-4062-4F9A-A594-D9A1FF25F507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB39801-C3DA-4E37-83FC-79496887B6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6195" yWindow="-18930" windowWidth="28800" windowHeight="17145" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pairwise" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="35">
   <si>
     <t>Сформировать таблицу</t>
   </si>
@@ -65,12 +65,6 @@
     <t>Менее 100 символов</t>
   </si>
   <si>
-    <t xml:space="preserve">Кириллица </t>
-  </si>
-  <si>
-    <t>Запрещённые спецсимволы</t>
-  </si>
-  <si>
     <t>Более 100 символов</t>
   </si>
   <si>
@@ -86,18 +80,12 @@
     <t>Отсутствуют</t>
   </si>
   <si>
-    <t>Запрещённые</t>
-  </si>
-  <si>
     <t>Нелинейный класс</t>
   </si>
   <si>
     <t>Линейный:0,100</t>
   </si>
   <si>
-    <t>Присутствуют</t>
-  </si>
-  <si>
     <t>Нелинейный если select</t>
   </si>
   <si>
@@ -113,7 +101,31 @@
     <t>Менее 0</t>
   </si>
   <si>
-    <t>Менее 1, но более 0</t>
+    <t>Присутствуют допустимые</t>
+  </si>
+  <si>
+    <t>Присутствуют запрещённые</t>
+  </si>
+  <si>
+    <t>Поиск по</t>
+  </si>
+  <si>
+    <t>Пользователю</t>
+  </si>
+  <si>
+    <t>Событию</t>
+  </si>
+  <si>
+    <t>Сообществу</t>
+  </si>
+  <si>
+    <t>0 Символов</t>
+  </si>
+  <si>
+    <t>Кириллица и Латиница</t>
+  </si>
+  <si>
+    <t>Менее 100 Символов</t>
   </si>
 </sst>
 </file>
@@ -212,17 +224,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>602677</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>324934</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>21981</xdr:rowOff>
+      <xdr:rowOff>57716</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Рисунок 3">
+        <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4C98F7E-886E-3A7D-4C1E-EEF84D72D9E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83B32433-0F3B-7636-14B4-B1DD489C75DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -239,7 +251,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="16626658" cy="4022481"/>
+          <a:ext cx="13022492" cy="4058216"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -540,11 +552,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M25" sqref="M25"/>
+      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,38 +565,32 @@
     <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -592,28 +598,22 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -621,28 +621,22 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -650,115 +644,91 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -766,28 +736,22 @@
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -795,28 +759,22 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -824,28 +782,22 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -853,28 +805,22 @@
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -882,28 +828,22 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -911,28 +851,22 @@
         <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -940,28 +874,22 @@
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -969,28 +897,22 @@
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -998,28 +920,22 @@
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1027,28 +943,22 @@
         <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1056,28 +966,22 @@
         <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1085,28 +989,22 @@
         <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1114,461 +1012,87 @@
         <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>24</v>
-      </c>
+    </row>
+    <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -1578,153 +1102,130 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2244CA50-EA25-46C9-A83C-6DBB19B63C5A}">
-  <dimension ref="A24:H30"/>
+  <dimension ref="A24:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
+    <col min="3" max="3" width="39.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E24" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="F28" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="E29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="E30" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" s="6" t="s">
         <v>11</v>
       </c>
     </row>
